--- a/biology/Botanique/Asti_spumante/Asti_spumante.xlsx
+++ b/biology/Botanique/Asti_spumante/Asti_spumante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Asti spumante[1] (ou Asti) est un vin blanc mousseux italien de la région Piémont doté d'une appellation DOCG depuis le 14 novembre 1977. Seuls ont droit à la DOCG les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret.
+L'Asti spumante (ou Asti) est un vin blanc mousseux italien de la région Piémont doté d'une appellation DOCG depuis le 14 novembre 1977. Seuls ont droit à la DOCG les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Aire de l'appellation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent dans les provinces d'Asti, Coni et Alexandrie.
 Les communes sont :
@@ -549,7 +563,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>couleur : jaune paille à jaune or avec une mousse légère et de fines bulles.
 odeur : caractéristique du muscat, prononcé, délicat.
@@ -581,7 +597,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
 </t>
@@ -612,9 +630,11 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la question « quelle est votre drogue favorite ? » que lui pose Bernard Pivot dans le questionnaire de son émission Bouillon de culture du 5 avril 1996, Sœur Emmanuelle répond « l'asti spumante » qu'elle précise préférer au champagne[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la question « quelle est votre drogue favorite ? » que lui pose Bernard Pivot dans le questionnaire de son émission Bouillon de culture du 5 avril 1996, Sœur Emmanuelle répond « l'asti spumante » qu'elle précise préférer au champagne.
 </t>
         </is>
       </c>
